--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -2327,7 +2327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2362,11 +2362,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2411,7 +2406,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2422,10 +2417,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2635,10 +2626,10 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A773" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="O796" activeCellId="0" sqref="O796"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25159,7 +25150,7 @@
       <c r="N402" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O402" s="3" t="s">
+      <c r="O402" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P402" s="1" t="n">
@@ -25215,7 +25206,7 @@
       <c r="N403" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O403" s="3" t="s">
+      <c r="O403" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P403" s="1" t="n">
@@ -25271,7 +25262,7 @@
       <c r="N404" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O404" s="3" t="s">
+      <c r="O404" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P404" s="1" t="n">
@@ -25327,7 +25318,7 @@
       <c r="N405" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O405" s="3" t="s">
+      <c r="O405" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P405" s="1" t="n">
@@ -25383,7 +25374,7 @@
       <c r="N406" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O406" s="3" t="s">
+      <c r="O406" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P406" s="1" t="n">
@@ -25439,7 +25430,7 @@
       <c r="N407" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O407" s="3" t="s">
+      <c r="O407" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P407" s="1" t="n">
@@ -25495,7 +25486,7 @@
       <c r="N408" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O408" s="3" t="s">
+      <c r="O408" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P408" s="1" t="n">
@@ -25551,7 +25542,7 @@
       <c r="N409" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O409" s="3" t="s">
+      <c r="O409" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P409" s="1" t="n">
@@ -25607,7 +25598,7 @@
       <c r="N410" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O410" s="3" t="s">
+      <c r="O410" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P410" s="1" t="n">
@@ -25663,7 +25654,7 @@
       <c r="N411" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O411" s="3" t="s">
+      <c r="O411" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P411" s="1" t="n">
@@ -25719,7 +25710,7 @@
       <c r="N412" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O412" s="3" t="s">
+      <c r="O412" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P412" s="1" t="n">
@@ -25775,7 +25766,7 @@
       <c r="N413" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O413" s="3" t="s">
+      <c r="O413" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P413" s="1" t="n">
@@ -25831,7 +25822,7 @@
       <c r="N414" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O414" s="3" t="s">
+      <c r="O414" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P414" s="1" t="n">
@@ -25887,7 +25878,7 @@
       <c r="N415" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O415" s="3" t="s">
+      <c r="O415" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P415" s="1" t="n">
@@ -25943,7 +25934,7 @@
       <c r="N416" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O416" s="3" t="s">
+      <c r="O416" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P416" s="1" t="n">
@@ -25999,7 +25990,7 @@
       <c r="N417" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O417" s="3" t="s">
+      <c r="O417" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P417" s="1" t="n">
@@ -26055,7 +26046,7 @@
       <c r="N418" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O418" s="3" t="s">
+      <c r="O418" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P418" s="1" t="n">
@@ -26111,7 +26102,7 @@
       <c r="N419" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O419" s="3" t="s">
+      <c r="O419" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P419" s="1" t="n">
@@ -26167,7 +26158,7 @@
       <c r="N420" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O420" s="3" t="s">
+      <c r="O420" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P420" s="1" t="n">
@@ -26223,7 +26214,7 @@
       <c r="N421" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O421" s="3" t="s">
+      <c r="O421" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P421" s="1" t="n">
@@ -26279,7 +26270,7 @@
       <c r="N422" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O422" s="3" t="s">
+      <c r="O422" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P422" s="1" t="n">
@@ -26335,7 +26326,7 @@
       <c r="N423" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O423" s="3" t="s">
+      <c r="O423" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P423" s="1" t="n">
@@ -26391,7 +26382,7 @@
       <c r="N424" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O424" s="3" t="s">
+      <c r="O424" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P424" s="1" t="n">
@@ -26447,7 +26438,7 @@
       <c r="N425" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O425" s="3" t="s">
+      <c r="O425" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P425" s="1" t="n">
@@ -26503,7 +26494,7 @@
       <c r="N426" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O426" s="3" t="s">
+      <c r="O426" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P426" s="1" t="n">
@@ -26559,7 +26550,7 @@
       <c r="N427" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O427" s="3" t="s">
+      <c r="O427" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P427" s="1" t="n">
@@ -26615,7 +26606,7 @@
       <c r="N428" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O428" s="3" t="s">
+      <c r="O428" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P428" s="1" t="n">
@@ -26671,7 +26662,7 @@
       <c r="N429" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O429" s="3" t="s">
+      <c r="O429" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P429" s="1" t="n">
@@ -26727,7 +26718,7 @@
       <c r="N430" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O430" s="3" t="s">
+      <c r="O430" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P430" s="1" t="n">
@@ -26783,7 +26774,7 @@
       <c r="N431" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O431" s="3" t="s">
+      <c r="O431" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P431" s="1" t="n">
@@ -26839,7 +26830,7 @@
       <c r="N432" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O432" s="3" t="s">
+      <c r="O432" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P432" s="1" t="n">
@@ -26895,7 +26886,7 @@
       <c r="N433" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O433" s="3" t="s">
+      <c r="O433" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P433" s="1" t="n">
@@ -26951,7 +26942,7 @@
       <c r="N434" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O434" s="3" t="s">
+      <c r="O434" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P434" s="1" t="n">
@@ -27007,7 +26998,7 @@
       <c r="N435" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O435" s="3" t="s">
+      <c r="O435" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P435" s="1" t="n">
@@ -27063,7 +27054,7 @@
       <c r="N436" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O436" s="3" t="s">
+      <c r="O436" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P436" s="1" t="n">
@@ -27119,7 +27110,7 @@
       <c r="N437" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O437" s="3" t="s">
+      <c r="O437" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P437" s="1" t="n">
@@ -27175,7 +27166,7 @@
       <c r="N438" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O438" s="3" t="s">
+      <c r="O438" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P438" s="1" t="n">
@@ -27231,7 +27222,7 @@
       <c r="N439" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O439" s="3" t="s">
+      <c r="O439" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P439" s="1" t="n">
@@ -27287,7 +27278,7 @@
       <c r="N440" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O440" s="3" t="s">
+      <c r="O440" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P440" s="1" t="n">
@@ -27343,7 +27334,7 @@
       <c r="N441" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O441" s="3" t="s">
+      <c r="O441" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P441" s="1" t="n">
@@ -27399,7 +27390,7 @@
       <c r="N442" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O442" s="3" t="s">
+      <c r="O442" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P442" s="1" t="n">
@@ -27455,7 +27446,7 @@
       <c r="N443" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O443" s="3" t="s">
+      <c r="O443" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P443" s="1" t="n">
@@ -27511,7 +27502,7 @@
       <c r="N444" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O444" s="3" t="s">
+      <c r="O444" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P444" s="1" t="n">
@@ -27567,7 +27558,7 @@
       <c r="N445" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O445" s="3" t="s">
+      <c r="O445" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P445" s="1" t="n">
@@ -27623,7 +27614,7 @@
       <c r="N446" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O446" s="3" t="s">
+      <c r="O446" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P446" s="1" t="n">
@@ -27679,7 +27670,7 @@
       <c r="N447" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O447" s="3" t="s">
+      <c r="O447" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P447" s="1" t="n">
@@ -27735,7 +27726,7 @@
       <c r="N448" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O448" s="3" t="s">
+      <c r="O448" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P448" s="1" t="n">
@@ -27791,7 +27782,7 @@
       <c r="N449" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O449" s="3" t="s">
+      <c r="O449" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P449" s="1" t="n">
@@ -27847,7 +27838,7 @@
       <c r="N450" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O450" s="3" t="s">
+      <c r="O450" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P450" s="1" t="n">
@@ -27903,7 +27894,7 @@
       <c r="N451" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O451" s="3" t="s">
+      <c r="O451" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P451" s="1" t="n">
@@ -27959,7 +27950,7 @@
       <c r="N452" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O452" s="3" t="s">
+      <c r="O452" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P452" s="1" t="n">
@@ -28015,7 +28006,7 @@
       <c r="N453" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O453" s="3" t="s">
+      <c r="O453" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P453" s="1" t="n">
@@ -28071,7 +28062,7 @@
       <c r="N454" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O454" s="3" t="s">
+      <c r="O454" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P454" s="1" t="n">
@@ -28127,7 +28118,7 @@
       <c r="N455" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O455" s="3" t="s">
+      <c r="O455" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P455" s="1" t="n">
@@ -28183,7 +28174,7 @@
       <c r="N456" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O456" s="3" t="s">
+      <c r="O456" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P456" s="1" t="n">
@@ -28239,7 +28230,7 @@
       <c r="N457" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O457" s="3" t="s">
+      <c r="O457" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P457" s="1" t="n">
@@ -28295,7 +28286,7 @@
       <c r="N458" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O458" s="3" t="s">
+      <c r="O458" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P458" s="1" t="n">
@@ -28351,7 +28342,7 @@
       <c r="N459" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O459" s="3" t="s">
+      <c r="O459" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P459" s="1" t="n">
@@ -28407,7 +28398,7 @@
       <c r="N460" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O460" s="3" t="s">
+      <c r="O460" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P460" s="1" t="n">
@@ -28463,7 +28454,7 @@
       <c r="N461" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O461" s="3" t="s">
+      <c r="O461" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P461" s="1" t="n">
@@ -28519,7 +28510,7 @@
       <c r="N462" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O462" s="3" t="s">
+      <c r="O462" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P462" s="1" t="n">
@@ -28575,7 +28566,7 @@
       <c r="N463" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O463" s="3" t="s">
+      <c r="O463" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P463" s="1" t="n">
@@ -28631,7 +28622,7 @@
       <c r="N464" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O464" s="3" t="s">
+      <c r="O464" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P464" s="1" t="n">
@@ -28687,7 +28678,7 @@
       <c r="N465" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O465" s="3" t="s">
+      <c r="O465" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P465" s="1" t="n">
@@ -28743,7 +28734,7 @@
       <c r="N466" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O466" s="3" t="s">
+      <c r="O466" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P466" s="1" t="n">
@@ -28799,7 +28790,7 @@
       <c r="N467" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O467" s="3" t="s">
+      <c r="O467" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P467" s="1" t="n">
@@ -28855,7 +28846,7 @@
       <c r="N468" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O468" s="3" t="s">
+      <c r="O468" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P468" s="1" t="n">
@@ -28911,7 +28902,7 @@
       <c r="N469" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O469" s="3" t="s">
+      <c r="O469" s="1" t="s">
         <v>504</v>
       </c>
       <c r="P469" s="1" t="n">
@@ -28974,10 +28965,10 @@
         <v>2025</v>
       </c>
       <c r="Q470" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R470" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29030,10 +29021,10 @@
         <v>2025</v>
       </c>
       <c r="Q471" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R471" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29086,10 +29077,10 @@
         <v>2025</v>
       </c>
       <c r="Q472" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R472" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29142,10 +29133,10 @@
         <v>2025</v>
       </c>
       <c r="Q473" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R473" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29198,10 +29189,10 @@
         <v>2025</v>
       </c>
       <c r="Q474" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R474" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29254,10 +29245,10 @@
         <v>2025</v>
       </c>
       <c r="Q475" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R475" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29310,10 +29301,10 @@
         <v>2025</v>
       </c>
       <c r="Q476" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R476" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29363,13 +29354,13 @@
         <v>558</v>
       </c>
       <c r="P477" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q477" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R477" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29419,13 +29410,13 @@
         <v>558</v>
       </c>
       <c r="P478" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q478" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R478" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29475,13 +29466,13 @@
         <v>558</v>
       </c>
       <c r="P479" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q479" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R479" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29531,13 +29522,13 @@
         <v>558</v>
       </c>
       <c r="P480" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q480" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R480" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29587,13 +29578,13 @@
         <v>558</v>
       </c>
       <c r="P481" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q481" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R481" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29643,13 +29634,13 @@
         <v>558</v>
       </c>
       <c r="P482" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q482" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R482" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29699,13 +29690,13 @@
         <v>558</v>
       </c>
       <c r="P483" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q483" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R483" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29755,13 +29746,13 @@
         <v>558</v>
       </c>
       <c r="P484" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q484" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R484" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29811,13 +29802,13 @@
         <v>558</v>
       </c>
       <c r="P485" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q485" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R485" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29867,13 +29858,13 @@
         <v>558</v>
       </c>
       <c r="P486" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q486" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R486" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29923,13 +29914,13 @@
         <v>558</v>
       </c>
       <c r="P487" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q487" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R487" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29979,13 +29970,13 @@
         <v>558</v>
       </c>
       <c r="P488" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q488" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R488" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30035,13 +30026,13 @@
         <v>558</v>
       </c>
       <c r="P489" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q489" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R489" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30091,13 +30082,13 @@
         <v>558</v>
       </c>
       <c r="P490" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q490" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R490" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30147,13 +30138,13 @@
         <v>558</v>
       </c>
       <c r="P491" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q491" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R491" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30203,13 +30194,13 @@
         <v>558</v>
       </c>
       <c r="P492" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q492" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R492" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30259,13 +30250,13 @@
         <v>558</v>
       </c>
       <c r="P493" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q493" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R493" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30315,13 +30306,13 @@
         <v>558</v>
       </c>
       <c r="P494" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q494" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R494" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30371,13 +30362,13 @@
         <v>558</v>
       </c>
       <c r="P495" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q495" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R495" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30427,13 +30418,13 @@
         <v>558</v>
       </c>
       <c r="P496" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q496" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R496" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30483,13 +30474,13 @@
         <v>558</v>
       </c>
       <c r="P497" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q497" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R497" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30539,13 +30530,13 @@
         <v>558</v>
       </c>
       <c r="P498" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q498" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R498" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30595,13 +30586,13 @@
         <v>558</v>
       </c>
       <c r="P499" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q499" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R499" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30651,13 +30642,13 @@
         <v>558</v>
       </c>
       <c r="P500" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q500" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R500" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30707,13 +30698,13 @@
         <v>558</v>
       </c>
       <c r="P501" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q501" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R501" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30763,13 +30754,13 @@
         <v>558</v>
       </c>
       <c r="P502" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q502" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R502" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30819,13 +30810,13 @@
         <v>558</v>
       </c>
       <c r="P503" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q503" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R503" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30875,13 +30866,13 @@
         <v>558</v>
       </c>
       <c r="P504" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q504" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R504" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30931,13 +30922,13 @@
         <v>558</v>
       </c>
       <c r="P505" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q505" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R505" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30987,13 +30978,13 @@
         <v>558</v>
       </c>
       <c r="P506" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q506" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R506" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31043,13 +31034,13 @@
         <v>558</v>
       </c>
       <c r="P507" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q507" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R507" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31099,13 +31090,13 @@
         <v>558</v>
       </c>
       <c r="P508" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q508" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R508" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31155,13 +31146,13 @@
         <v>558</v>
       </c>
       <c r="P509" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q509" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R509" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31211,13 +31202,13 @@
         <v>558</v>
       </c>
       <c r="P510" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q510" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R510" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31267,13 +31258,13 @@
         <v>558</v>
       </c>
       <c r="P511" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q511" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R511" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31323,13 +31314,13 @@
         <v>558</v>
       </c>
       <c r="P512" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q512" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R512" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31379,13 +31370,13 @@
         <v>558</v>
       </c>
       <c r="P513" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q513" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R513" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31435,13 +31426,13 @@
         <v>558</v>
       </c>
       <c r="P514" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q514" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R514" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31491,13 +31482,13 @@
         <v>558</v>
       </c>
       <c r="P515" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q515" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R515" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31547,13 +31538,13 @@
         <v>558</v>
       </c>
       <c r="P516" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q516" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R516" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31603,13 +31594,13 @@
         <v>558</v>
       </c>
       <c r="P517" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q517" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R517" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31659,13 +31650,13 @@
         <v>558</v>
       </c>
       <c r="P518" s="1" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="Q518" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R518" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31718,10 +31709,10 @@
         <v>2025</v>
       </c>
       <c r="Q519" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R519" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31774,10 +31765,10 @@
         <v>2025</v>
       </c>
       <c r="Q520" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R520" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31830,10 +31821,10 @@
         <v>2025</v>
       </c>
       <c r="Q521" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R521" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31886,10 +31877,10 @@
         <v>2025</v>
       </c>
       <c r="Q522" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R522" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31942,10 +31933,10 @@
         <v>2025</v>
       </c>
       <c r="Q523" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R523" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31998,10 +31989,10 @@
         <v>2025</v>
       </c>
       <c r="Q524" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R524" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33615,7 +33606,7 @@
       <c r="N553" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O553" s="3" t="s">
+      <c r="O553" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P553" s="1" t="n">
@@ -33671,7 +33662,7 @@
       <c r="N554" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O554" s="3" t="s">
+      <c r="O554" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P554" s="1" t="n">
@@ -33727,7 +33718,7 @@
       <c r="N555" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O555" s="3" t="s">
+      <c r="O555" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P555" s="1" t="n">
@@ -33783,7 +33774,7 @@
       <c r="N556" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O556" s="3" t="s">
+      <c r="O556" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P556" s="1" t="n">
@@ -33839,7 +33830,7 @@
       <c r="N557" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O557" s="3" t="s">
+      <c r="O557" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P557" s="1" t="n">
@@ -33895,7 +33886,7 @@
       <c r="N558" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O558" s="3" t="s">
+      <c r="O558" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P558" s="1" t="n">
@@ -33951,7 +33942,7 @@
       <c r="N559" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O559" s="3" t="s">
+      <c r="O559" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P559" s="1" t="n">
@@ -34007,7 +33998,7 @@
       <c r="N560" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O560" s="3" t="s">
+      <c r="O560" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P560" s="1" t="n">
@@ -34063,7 +34054,7 @@
       <c r="N561" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O561" s="3" t="s">
+      <c r="O561" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P561" s="1" t="n">
@@ -34119,7 +34110,7 @@
       <c r="N562" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O562" s="3" t="s">
+      <c r="O562" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P562" s="1" t="n">
@@ -34175,7 +34166,7 @@
       <c r="N563" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O563" s="3" t="s">
+      <c r="O563" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P563" s="1" t="n">
@@ -34231,7 +34222,7 @@
       <c r="N564" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O564" s="3" t="s">
+      <c r="O564" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P564" s="1" t="n">
@@ -34287,7 +34278,7 @@
       <c r="N565" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O565" s="3" t="s">
+      <c r="O565" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P565" s="1" t="n">
@@ -34343,7 +34334,7 @@
       <c r="N566" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O566" s="3" t="s">
+      <c r="O566" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P566" s="1" t="n">
@@ -34399,7 +34390,7 @@
       <c r="N567" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O567" s="3" t="s">
+      <c r="O567" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P567" s="1" t="n">
@@ -34455,7 +34446,7 @@
       <c r="N568" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O568" s="3" t="s">
+      <c r="O568" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P568" s="1" t="n">
@@ -34511,7 +34502,7 @@
       <c r="N569" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O569" s="3" t="s">
+      <c r="O569" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P569" s="1" t="n">
@@ -34567,7 +34558,7 @@
       <c r="N570" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O570" s="3" t="s">
+      <c r="O570" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P570" s="1" t="n">
@@ -34623,7 +34614,7 @@
       <c r="N571" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O571" s="3" t="s">
+      <c r="O571" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P571" s="1" t="n">
@@ -34679,7 +34670,7 @@
       <c r="N572" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O572" s="3" t="s">
+      <c r="O572" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P572" s="1" t="n">
@@ -34735,7 +34726,7 @@
       <c r="N573" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O573" s="3" t="s">
+      <c r="O573" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P573" s="1" t="n">
@@ -34791,7 +34782,7 @@
       <c r="N574" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O574" s="3" t="s">
+      <c r="O574" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P574" s="1" t="n">
@@ -34847,7 +34838,7 @@
       <c r="N575" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O575" s="3" t="s">
+      <c r="O575" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P575" s="1" t="n">
@@ -34903,7 +34894,7 @@
       <c r="N576" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O576" s="3" t="s">
+      <c r="O576" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P576" s="1" t="n">
@@ -34959,7 +34950,7 @@
       <c r="N577" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O577" s="3" t="s">
+      <c r="O577" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P577" s="1" t="n">
@@ -35015,7 +35006,7 @@
       <c r="N578" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O578" s="3" t="s">
+      <c r="O578" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P578" s="1" t="n">
@@ -35071,7 +35062,7 @@
       <c r="N579" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O579" s="3" t="s">
+      <c r="O579" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P579" s="1" t="n">
@@ -35127,7 +35118,7 @@
       <c r="N580" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O580" s="3" t="s">
+      <c r="O580" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P580" s="1" t="n">
@@ -35183,7 +35174,7 @@
       <c r="N581" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O581" s="3" t="s">
+      <c r="O581" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P581" s="1" t="n">
@@ -35239,7 +35230,7 @@
       <c r="N582" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O582" s="3" t="s">
+      <c r="O582" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P582" s="1" t="n">
@@ -35295,7 +35286,7 @@
       <c r="N583" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O583" s="3" t="s">
+      <c r="O583" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P583" s="1" t="n">
@@ -35351,7 +35342,7 @@
       <c r="N584" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O584" s="3" t="s">
+      <c r="O584" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P584" s="1" t="n">
@@ -35407,7 +35398,7 @@
       <c r="N585" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O585" s="3" t="s">
+      <c r="O585" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P585" s="1" t="n">
@@ -35463,7 +35454,7 @@
       <c r="N586" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O586" s="3" t="s">
+      <c r="O586" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P586" s="1" t="n">
@@ -35519,7 +35510,7 @@
       <c r="N587" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O587" s="3" t="s">
+      <c r="O587" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P587" s="1" t="n">
@@ -35575,7 +35566,7 @@
       <c r="N588" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O588" s="3" t="s">
+      <c r="O588" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P588" s="1" t="n">
@@ -35631,7 +35622,7 @@
       <c r="N589" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O589" s="3" t="s">
+      <c r="O589" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P589" s="1" t="n">
@@ -35687,7 +35678,7 @@
       <c r="N590" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O590" s="3" t="s">
+      <c r="O590" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P590" s="1" t="n">
@@ -35743,7 +35734,7 @@
       <c r="N591" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O591" s="3" t="s">
+      <c r="O591" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P591" s="1" t="n">
@@ -35799,7 +35790,7 @@
       <c r="N592" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O592" s="3" t="s">
+      <c r="O592" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P592" s="1" t="n">
@@ -35855,7 +35846,7 @@
       <c r="N593" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O593" s="3" t="s">
+      <c r="O593" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P593" s="1" t="n">
@@ -35911,7 +35902,7 @@
       <c r="N594" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O594" s="3" t="s">
+      <c r="O594" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P594" s="1" t="n">
@@ -35967,7 +35958,7 @@
       <c r="N595" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O595" s="3" t="s">
+      <c r="O595" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P595" s="1" t="n">
@@ -36023,7 +36014,7 @@
       <c r="N596" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O596" s="3" t="s">
+      <c r="O596" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P596" s="1" t="n">
@@ -36079,7 +36070,7 @@
       <c r="N597" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O597" s="3" t="s">
+      <c r="O597" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P597" s="1" t="n">
@@ -36135,7 +36126,7 @@
       <c r="N598" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O598" s="3" t="s">
+      <c r="O598" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P598" s="1" t="n">
@@ -36191,7 +36182,7 @@
       <c r="N599" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O599" s="3" t="s">
+      <c r="O599" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P599" s="1" t="n">
@@ -36247,7 +36238,7 @@
       <c r="N600" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O600" s="3" t="s">
+      <c r="O600" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P600" s="1" t="n">
@@ -36303,7 +36294,7 @@
       <c r="N601" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O601" s="3" t="s">
+      <c r="O601" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P601" s="1" t="n">
@@ -36359,7 +36350,7 @@
       <c r="N602" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O602" s="3" t="s">
+      <c r="O602" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P602" s="1" t="n">
@@ -36415,7 +36406,7 @@
       <c r="N603" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O603" s="3" t="s">
+      <c r="O603" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P603" s="1" t="n">
@@ -36471,7 +36462,7 @@
       <c r="N604" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O604" s="3" t="s">
+      <c r="O604" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P604" s="1" t="n">
@@ -36527,7 +36518,7 @@
       <c r="N605" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O605" s="3" t="s">
+      <c r="O605" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P605" s="1" t="n">
@@ -36583,7 +36574,7 @@
       <c r="N606" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O606" s="3" t="s">
+      <c r="O606" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P606" s="1" t="n">
@@ -36639,7 +36630,7 @@
       <c r="N607" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O607" s="3" t="s">
+      <c r="O607" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P607" s="1" t="n">
@@ -36695,7 +36686,7 @@
       <c r="N608" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O608" s="3" t="s">
+      <c r="O608" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P608" s="1" t="n">
@@ -36751,7 +36742,7 @@
       <c r="N609" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O609" s="3" t="s">
+      <c r="O609" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P609" s="1" t="n">
@@ -36807,7 +36798,7 @@
       <c r="N610" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O610" s="3" t="s">
+      <c r="O610" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P610" s="1" t="n">
@@ -36863,7 +36854,7 @@
       <c r="N611" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="O611" s="3" t="s">
+      <c r="O611" s="1" t="s">
         <v>605</v>
       </c>
       <c r="P611" s="1" t="n">
@@ -36919,7 +36910,7 @@
       <c r="N612" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O612" s="3" t="s">
+      <c r="O612" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P612" s="1" t="n">
@@ -36975,7 +36966,7 @@
       <c r="N613" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O613" s="3" t="s">
+      <c r="O613" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P613" s="1" t="n">
@@ -37031,7 +37022,7 @@
       <c r="N614" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O614" s="3" t="s">
+      <c r="O614" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P614" s="1" t="n">
@@ -37087,7 +37078,7 @@
       <c r="N615" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O615" s="3" t="s">
+      <c r="O615" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P615" s="1" t="n">
@@ -37143,7 +37134,7 @@
       <c r="N616" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O616" s="3" t="s">
+      <c r="O616" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P616" s="1" t="n">
@@ -37199,7 +37190,7 @@
       <c r="N617" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O617" s="3" t="s">
+      <c r="O617" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P617" s="1" t="n">
@@ -37255,7 +37246,7 @@
       <c r="N618" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O618" s="3" t="s">
+      <c r="O618" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P618" s="1" t="n">
@@ -37311,7 +37302,7 @@
       <c r="N619" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O619" s="3" t="s">
+      <c r="O619" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P619" s="1" t="n">
@@ -37367,7 +37358,7 @@
       <c r="N620" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O620" s="3" t="s">
+      <c r="O620" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P620" s="1" t="n">
@@ -37423,7 +37414,7 @@
       <c r="N621" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O621" s="3" t="s">
+      <c r="O621" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P621" s="1" t="n">
@@ -37479,7 +37470,7 @@
       <c r="N622" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O622" s="3" t="s">
+      <c r="O622" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P622" s="1" t="n">
@@ -37535,7 +37526,7 @@
       <c r="N623" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O623" s="3" t="s">
+      <c r="O623" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P623" s="1" t="n">
@@ -37591,7 +37582,7 @@
       <c r="N624" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O624" s="3" t="s">
+      <c r="O624" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P624" s="1" t="n">
@@ -37647,7 +37638,7 @@
       <c r="N625" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O625" s="3" t="s">
+      <c r="O625" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P625" s="1" t="n">
@@ -37703,7 +37694,7 @@
       <c r="N626" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O626" s="3" t="s">
+      <c r="O626" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P626" s="1" t="n">
@@ -37759,7 +37750,7 @@
       <c r="N627" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O627" s="3" t="s">
+      <c r="O627" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P627" s="1" t="n">
@@ -37815,7 +37806,7 @@
       <c r="N628" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O628" s="3" t="s">
+      <c r="O628" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P628" s="1" t="n">
@@ -37871,7 +37862,7 @@
       <c r="N629" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O629" s="3" t="s">
+      <c r="O629" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P629" s="1" t="n">
@@ -37927,7 +37918,7 @@
       <c r="N630" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O630" s="3" t="s">
+      <c r="O630" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P630" s="1" t="n">
@@ -37983,7 +37974,7 @@
       <c r="N631" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O631" s="3" t="s">
+      <c r="O631" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P631" s="1" t="n">
@@ -38039,7 +38030,7 @@
       <c r="N632" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O632" s="3" t="s">
+      <c r="O632" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P632" s="1" t="n">
@@ -38095,7 +38086,7 @@
       <c r="N633" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O633" s="3" t="s">
+      <c r="O633" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P633" s="1" t="n">
@@ -38151,7 +38142,7 @@
       <c r="N634" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O634" s="3" t="s">
+      <c r="O634" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P634" s="1" t="n">
@@ -38207,7 +38198,7 @@
       <c r="N635" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O635" s="3" t="s">
+      <c r="O635" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P635" s="1" t="n">
@@ -38263,7 +38254,7 @@
       <c r="N636" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O636" s="3" t="s">
+      <c r="O636" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P636" s="1" t="n">
@@ -38319,7 +38310,7 @@
       <c r="N637" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O637" s="3" t="s">
+      <c r="O637" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P637" s="1" t="n">
@@ -38375,7 +38366,7 @@
       <c r="N638" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O638" s="3" t="s">
+      <c r="O638" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P638" s="1" t="n">
@@ -38431,7 +38422,7 @@
       <c r="N639" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O639" s="3" t="s">
+      <c r="O639" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P639" s="1" t="n">
@@ -38487,7 +38478,7 @@
       <c r="N640" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O640" s="3" t="s">
+      <c r="O640" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P640" s="1" t="n">
@@ -38543,7 +38534,7 @@
       <c r="N641" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O641" s="3" t="s">
+      <c r="O641" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P641" s="1" t="n">
@@ -38599,7 +38590,7 @@
       <c r="N642" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O642" s="3" t="s">
+      <c r="O642" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P642" s="1" t="n">
@@ -38655,7 +38646,7 @@
       <c r="N643" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O643" s="3" t="s">
+      <c r="O643" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P643" s="1" t="n">
@@ -38711,7 +38702,7 @@
       <c r="N644" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O644" s="3" t="s">
+      <c r="O644" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P644" s="1" t="n">
@@ -38767,7 +38758,7 @@
       <c r="N645" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O645" s="3" t="s">
+      <c r="O645" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P645" s="1" t="n">
@@ -38823,7 +38814,7 @@
       <c r="N646" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O646" s="3" t="s">
+      <c r="O646" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P646" s="1" t="n">
@@ -38879,7 +38870,7 @@
       <c r="N647" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O647" s="3" t="s">
+      <c r="O647" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P647" s="1" t="n">
@@ -38935,7 +38926,7 @@
       <c r="N648" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O648" s="3" t="s">
+      <c r="O648" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P648" s="1" t="n">
@@ -38991,7 +38982,7 @@
       <c r="N649" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O649" s="3" t="s">
+      <c r="O649" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P649" s="1" t="n">
@@ -39047,7 +39038,7 @@
       <c r="N650" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O650" s="3" t="s">
+      <c r="O650" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P650" s="1" t="n">
@@ -39103,7 +39094,7 @@
       <c r="N651" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O651" s="3" t="s">
+      <c r="O651" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P651" s="1" t="n">
@@ -39159,7 +39150,7 @@
       <c r="N652" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O652" s="3" t="s">
+      <c r="O652" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P652" s="1" t="n">
@@ -39215,7 +39206,7 @@
       <c r="N653" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O653" s="3" t="s">
+      <c r="O653" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P653" s="1" t="n">
@@ -39271,7 +39262,7 @@
       <c r="N654" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O654" s="3" t="s">
+      <c r="O654" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P654" s="1" t="n">
@@ -39327,7 +39318,7 @@
       <c r="N655" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O655" s="3" t="s">
+      <c r="O655" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P655" s="1" t="n">
@@ -39383,7 +39374,7 @@
       <c r="N656" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O656" s="3" t="s">
+      <c r="O656" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P656" s="1" t="n">
@@ -39439,7 +39430,7 @@
       <c r="N657" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O657" s="3" t="s">
+      <c r="O657" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P657" s="1" t="n">
@@ -39495,7 +39486,7 @@
       <c r="N658" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O658" s="3" t="s">
+      <c r="O658" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P658" s="1" t="n">
@@ -39551,7 +39542,7 @@
       <c r="N659" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O659" s="3" t="s">
+      <c r="O659" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P659" s="1" t="n">
@@ -39607,7 +39598,7 @@
       <c r="N660" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O660" s="3" t="s">
+      <c r="O660" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P660" s="1" t="n">
@@ -39663,7 +39654,7 @@
       <c r="N661" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O661" s="3" t="s">
+      <c r="O661" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P661" s="1" t="n">
@@ -39719,7 +39710,7 @@
       <c r="N662" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O662" s="3" t="s">
+      <c r="O662" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P662" s="1" t="n">
@@ -39775,7 +39766,7 @@
       <c r="N663" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O663" s="3" t="s">
+      <c r="O663" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P663" s="1" t="n">
@@ -39831,7 +39822,7 @@
       <c r="N664" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O664" s="3" t="s">
+      <c r="O664" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P664" s="1" t="n">
@@ -39887,7 +39878,7 @@
       <c r="N665" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O665" s="3" t="s">
+      <c r="O665" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P665" s="1" t="n">
@@ -39943,7 +39934,7 @@
       <c r="N666" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O666" s="3" t="s">
+      <c r="O666" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P666" s="1" t="n">
@@ -39999,7 +39990,7 @@
       <c r="N667" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O667" s="3" t="s">
+      <c r="O667" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P667" s="1" t="n">
@@ -40055,7 +40046,7 @@
       <c r="N668" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O668" s="3" t="s">
+      <c r="O668" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P668" s="1" t="n">
@@ -40111,7 +40102,7 @@
       <c r="N669" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O669" s="3" t="s">
+      <c r="O669" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P669" s="1" t="n">
@@ -40167,7 +40158,7 @@
       <c r="N670" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O670" s="3" t="s">
+      <c r="O670" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P670" s="1" t="n">
@@ -40223,7 +40214,7 @@
       <c r="N671" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O671" s="3" t="s">
+      <c r="O671" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P671" s="1" t="n">
@@ -40279,7 +40270,7 @@
       <c r="N672" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O672" s="3" t="s">
+      <c r="O672" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P672" s="1" t="n">
@@ -40335,7 +40326,7 @@
       <c r="N673" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O673" s="3" t="s">
+      <c r="O673" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P673" s="1" t="n">
@@ -40391,7 +40382,7 @@
       <c r="N674" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O674" s="3" t="s">
+      <c r="O674" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P674" s="1" t="n">
@@ -40447,7 +40438,7 @@
       <c r="N675" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O675" s="3" t="s">
+      <c r="O675" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P675" s="1" t="n">
@@ -40503,7 +40494,7 @@
       <c r="N676" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O676" s="3" t="s">
+      <c r="O676" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P676" s="1" t="n">
@@ -40559,7 +40550,7 @@
       <c r="N677" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O677" s="3" t="s">
+      <c r="O677" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P677" s="1" t="n">
@@ -40615,7 +40606,7 @@
       <c r="N678" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O678" s="3" t="s">
+      <c r="O678" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P678" s="1" t="n">
@@ -40671,7 +40662,7 @@
       <c r="N679" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O679" s="3" t="s">
+      <c r="O679" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P679" s="1" t="n">
@@ -40727,7 +40718,7 @@
       <c r="N680" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O680" s="3" t="s">
+      <c r="O680" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P680" s="1" t="n">
@@ -40783,7 +40774,7 @@
       <c r="N681" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O681" s="3" t="s">
+      <c r="O681" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P681" s="1" t="n">
@@ -40839,7 +40830,7 @@
       <c r="N682" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O682" s="3" t="s">
+      <c r="O682" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P682" s="1" t="n">
@@ -40895,7 +40886,7 @@
       <c r="N683" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O683" s="3" t="s">
+      <c r="O683" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P683" s="1" t="n">
@@ -40951,7 +40942,7 @@
       <c r="N684" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O684" s="3" t="s">
+      <c r="O684" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P684" s="1" t="n">
@@ -41007,7 +40998,7 @@
       <c r="N685" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O685" s="3" t="s">
+      <c r="O685" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P685" s="1" t="n">
@@ -41063,7 +41054,7 @@
       <c r="N686" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O686" s="3" t="s">
+      <c r="O686" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P686" s="1" t="n">
@@ -41119,7 +41110,7 @@
       <c r="N687" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O687" s="3" t="s">
+      <c r="O687" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P687" s="1" t="n">
@@ -41175,7 +41166,7 @@
       <c r="N688" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O688" s="3" t="s">
+      <c r="O688" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P688" s="1" t="n">
@@ -41231,7 +41222,7 @@
       <c r="N689" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O689" s="3" t="s">
+      <c r="O689" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P689" s="1" t="n">
@@ -41287,7 +41278,7 @@
       <c r="N690" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O690" s="3" t="s">
+      <c r="O690" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P690" s="1" t="n">
@@ -41343,7 +41334,7 @@
       <c r="N691" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O691" s="3" t="s">
+      <c r="O691" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P691" s="1" t="n">
@@ -41399,7 +41390,7 @@
       <c r="N692" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O692" s="3" t="s">
+      <c r="O692" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P692" s="1" t="n">
@@ -41455,7 +41446,7 @@
       <c r="N693" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O693" s="3" t="s">
+      <c r="O693" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P693" s="1" t="n">
@@ -41511,7 +41502,7 @@
       <c r="N694" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O694" s="3" t="s">
+      <c r="O694" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P694" s="1" t="n">
@@ -41567,7 +41558,7 @@
       <c r="N695" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O695" s="3" t="s">
+      <c r="O695" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P695" s="1" t="n">
@@ -41623,7 +41614,7 @@
       <c r="N696" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O696" s="3" t="s">
+      <c r="O696" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P696" s="1" t="n">
@@ -41679,7 +41670,7 @@
       <c r="N697" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O697" s="3" t="s">
+      <c r="O697" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P697" s="1" t="n">
@@ -41735,7 +41726,7 @@
       <c r="N698" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O698" s="3" t="s">
+      <c r="O698" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P698" s="1" t="n">
@@ -41791,7 +41782,7 @@
       <c r="N699" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O699" s="3" t="s">
+      <c r="O699" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P699" s="1" t="n">
@@ -41847,7 +41838,7 @@
       <c r="N700" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O700" s="3" t="s">
+      <c r="O700" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P700" s="1" t="n">
@@ -41903,7 +41894,7 @@
       <c r="N701" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O701" s="3" t="s">
+      <c r="O701" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P701" s="1" t="n">
@@ -41959,7 +41950,7 @@
       <c r="N702" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O702" s="3" t="s">
+      <c r="O702" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P702" s="1" t="n">
@@ -42015,7 +42006,7 @@
       <c r="N703" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O703" s="3" t="s">
+      <c r="O703" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P703" s="1" t="n">
@@ -42071,7 +42062,7 @@
       <c r="N704" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O704" s="3" t="s">
+      <c r="O704" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P704" s="1" t="n">
@@ -42127,7 +42118,7 @@
       <c r="N705" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O705" s="3" t="s">
+      <c r="O705" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P705" s="1" t="n">
@@ -42183,7 +42174,7 @@
       <c r="N706" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O706" s="3" t="s">
+      <c r="O706" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P706" s="1" t="n">
@@ -42239,7 +42230,7 @@
       <c r="N707" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O707" s="3" t="s">
+      <c r="O707" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P707" s="1" t="n">
@@ -42295,7 +42286,7 @@
       <c r="N708" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O708" s="3" t="s">
+      <c r="O708" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P708" s="1" t="n">
@@ -42351,7 +42342,7 @@
       <c r="N709" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O709" s="3" t="s">
+      <c r="O709" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P709" s="1" t="n">
@@ -42407,7 +42398,7 @@
       <c r="N710" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O710" s="3" t="s">
+      <c r="O710" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P710" s="1" t="n">
@@ -42463,7 +42454,7 @@
       <c r="N711" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O711" s="3" t="s">
+      <c r="O711" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P711" s="1" t="n">
@@ -42519,7 +42510,7 @@
       <c r="N712" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O712" s="3" t="s">
+      <c r="O712" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P712" s="1" t="n">
@@ -42575,7 +42566,7 @@
       <c r="N713" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O713" s="3" t="s">
+      <c r="O713" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P713" s="1" t="n">
@@ -42631,7 +42622,7 @@
       <c r="N714" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O714" s="3" t="s">
+      <c r="O714" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P714" s="1" t="n">
@@ -42687,7 +42678,7 @@
       <c r="N715" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O715" s="3" t="s">
+      <c r="O715" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P715" s="1" t="n">
@@ -42743,7 +42734,7 @@
       <c r="N716" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O716" s="3" t="s">
+      <c r="O716" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P716" s="1" t="n">
@@ -42799,7 +42790,7 @@
       <c r="N717" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O717" s="3" t="s">
+      <c r="O717" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P717" s="1" t="n">
@@ -42855,7 +42846,7 @@
       <c r="N718" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O718" s="3" t="s">
+      <c r="O718" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P718" s="1" t="n">
@@ -42911,7 +42902,7 @@
       <c r="N719" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O719" s="3" t="s">
+      <c r="O719" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P719" s="1" t="n">
@@ -42967,7 +42958,7 @@
       <c r="N720" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O720" s="3" t="s">
+      <c r="O720" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P720" s="1" t="n">
@@ -43023,7 +43014,7 @@
       <c r="N721" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O721" s="3" t="s">
+      <c r="O721" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P721" s="1" t="n">
@@ -43079,7 +43070,7 @@
       <c r="N722" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O722" s="3" t="s">
+      <c r="O722" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P722" s="1" t="n">
@@ -43135,7 +43126,7 @@
       <c r="N723" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O723" s="3" t="s">
+      <c r="O723" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P723" s="1" t="n">
@@ -43191,7 +43182,7 @@
       <c r="N724" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O724" s="3" t="s">
+      <c r="O724" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P724" s="1" t="n">
@@ -43247,7 +43238,7 @@
       <c r="N725" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O725" s="3" t="s">
+      <c r="O725" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P725" s="1" t="n">
@@ -43303,7 +43294,7 @@
       <c r="N726" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O726" s="3" t="s">
+      <c r="O726" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P726" s="1" t="n">
@@ -43359,7 +43350,7 @@
       <c r="N727" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O727" s="3" t="s">
+      <c r="O727" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P727" s="1" t="n">
@@ -43415,7 +43406,7 @@
       <c r="N728" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O728" s="3" t="s">
+      <c r="O728" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P728" s="1" t="n">
@@ -43471,7 +43462,7 @@
       <c r="N729" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O729" s="3" t="s">
+      <c r="O729" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P729" s="1" t="n">
@@ -43527,7 +43518,7 @@
       <c r="N730" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O730" s="3" t="s">
+      <c r="O730" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P730" s="1" t="n">
@@ -43583,7 +43574,7 @@
       <c r="N731" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O731" s="3" t="s">
+      <c r="O731" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P731" s="1" t="n">
@@ -43639,7 +43630,7 @@
       <c r="N732" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O732" s="3" t="s">
+      <c r="O732" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P732" s="1" t="n">
@@ -43695,7 +43686,7 @@
       <c r="N733" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O733" s="3" t="s">
+      <c r="O733" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P733" s="1" t="n">
@@ -43751,7 +43742,7 @@
       <c r="N734" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O734" s="3" t="s">
+      <c r="O734" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P734" s="1" t="n">
@@ -43807,7 +43798,7 @@
       <c r="N735" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O735" s="3" t="s">
+      <c r="O735" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P735" s="1" t="n">
@@ -43863,7 +43854,7 @@
       <c r="N736" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O736" s="3" t="s">
+      <c r="O736" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P736" s="1" t="n">
@@ -43919,7 +43910,7 @@
       <c r="N737" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O737" s="3" t="s">
+      <c r="O737" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P737" s="1" t="n">
@@ -43975,7 +43966,7 @@
       <c r="N738" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O738" s="3" t="s">
+      <c r="O738" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P738" s="1" t="n">
@@ -44031,7 +44022,7 @@
       <c r="N739" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O739" s="3" t="s">
+      <c r="O739" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P739" s="1" t="n">
@@ -44087,7 +44078,7 @@
       <c r="N740" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O740" s="3" t="s">
+      <c r="O740" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P740" s="1" t="n">
@@ -44143,7 +44134,7 @@
       <c r="N741" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O741" s="3" t="s">
+      <c r="O741" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P741" s="1" t="n">
@@ -44199,7 +44190,7 @@
       <c r="N742" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O742" s="3" t="s">
+      <c r="O742" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P742" s="1" t="n">
@@ -44255,7 +44246,7 @@
       <c r="N743" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O743" s="3" t="s">
+      <c r="O743" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P743" s="1" t="n">
@@ -44311,7 +44302,7 @@
       <c r="N744" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O744" s="3" t="s">
+      <c r="O744" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P744" s="1" t="n">
@@ -44367,7 +44358,7 @@
       <c r="N745" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O745" s="3" t="s">
+      <c r="O745" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P745" s="1" t="n">
@@ -44423,7 +44414,7 @@
       <c r="N746" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O746" s="3" t="s">
+      <c r="O746" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P746" s="1" t="n">
@@ -44479,7 +44470,7 @@
       <c r="N747" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O747" s="3" t="s">
+      <c r="O747" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P747" s="1" t="n">
@@ -44535,7 +44526,7 @@
       <c r="N748" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O748" s="3" t="s">
+      <c r="O748" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P748" s="1" t="n">
@@ -44591,7 +44582,7 @@
       <c r="N749" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O749" s="3" t="s">
+      <c r="O749" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P749" s="1" t="n">
@@ -44647,7 +44638,7 @@
       <c r="N750" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O750" s="3" t="s">
+      <c r="O750" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P750" s="1" t="n">
@@ -44703,7 +44694,7 @@
       <c r="N751" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O751" s="3" t="s">
+      <c r="O751" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P751" s="1" t="n">
@@ -44759,7 +44750,7 @@
       <c r="N752" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O752" s="3" t="s">
+      <c r="O752" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P752" s="1" t="n">
@@ -44815,7 +44806,7 @@
       <c r="N753" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O753" s="3" t="s">
+      <c r="O753" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P753" s="1" t="n">
@@ -44871,7 +44862,7 @@
       <c r="N754" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O754" s="3" t="s">
+      <c r="O754" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P754" s="1" t="n">
@@ -44927,7 +44918,7 @@
       <c r="N755" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O755" s="3" t="s">
+      <c r="O755" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P755" s="1" t="n">
@@ -44983,7 +44974,7 @@
       <c r="N756" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O756" s="3" t="s">
+      <c r="O756" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P756" s="1" t="n">
@@ -45039,7 +45030,7 @@
       <c r="N757" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O757" s="3" t="s">
+      <c r="O757" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P757" s="1" t="n">
@@ -45095,7 +45086,7 @@
       <c r="N758" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O758" s="3" t="s">
+      <c r="O758" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P758" s="1" t="n">
@@ -45151,7 +45142,7 @@
       <c r="N759" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O759" s="3" t="s">
+      <c r="O759" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P759" s="1" t="n">
@@ -45207,7 +45198,7 @@
       <c r="N760" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O760" s="3" t="s">
+      <c r="O760" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P760" s="1" t="n">
@@ -45263,7 +45254,7 @@
       <c r="N761" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O761" s="3" t="s">
+      <c r="O761" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P761" s="1" t="n">
@@ -45319,7 +45310,7 @@
       <c r="N762" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O762" s="3" t="s">
+      <c r="O762" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P762" s="1" t="n">
@@ -45375,7 +45366,7 @@
       <c r="N763" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O763" s="3" t="s">
+      <c r="O763" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P763" s="1" t="n">
@@ -45431,7 +45422,7 @@
       <c r="N764" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O764" s="3" t="s">
+      <c r="O764" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P764" s="1" t="n">
@@ -45487,7 +45478,7 @@
       <c r="N765" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O765" s="3" t="s">
+      <c r="O765" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P765" s="1" t="n">
@@ -45543,7 +45534,7 @@
       <c r="N766" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O766" s="3" t="s">
+      <c r="O766" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P766" s="1" t="n">
@@ -45599,7 +45590,7 @@
       <c r="N767" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O767" s="3" t="s">
+      <c r="O767" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P767" s="1" t="n">
@@ -45655,7 +45646,7 @@
       <c r="N768" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O768" s="3" t="s">
+      <c r="O768" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P768" s="1" t="n">
@@ -45711,7 +45702,7 @@
       <c r="N769" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O769" s="3" t="s">
+      <c r="O769" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P769" s="1" t="n">
@@ -45767,7 +45758,7 @@
       <c r="N770" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O770" s="3" t="s">
+      <c r="O770" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P770" s="1" t="n">
@@ -45823,7 +45814,7 @@
       <c r="N771" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O771" s="3" t="s">
+      <c r="O771" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P771" s="1" t="n">
@@ -45879,7 +45870,7 @@
       <c r="N772" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O772" s="3" t="s">
+      <c r="O772" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P772" s="1" t="n">
@@ -45935,7 +45926,7 @@
       <c r="N773" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O773" s="3" t="s">
+      <c r="O773" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P773" s="1" t="n">
@@ -45991,7 +45982,7 @@
       <c r="N774" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O774" s="3" t="s">
+      <c r="O774" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P774" s="1" t="n">
@@ -46047,7 +46038,7 @@
       <c r="N775" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O775" s="3" t="s">
+      <c r="O775" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P775" s="1" t="n">
@@ -46103,7 +46094,7 @@
       <c r="N776" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O776" s="3" t="s">
+      <c r="O776" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P776" s="1" t="n">
@@ -46159,7 +46150,7 @@
       <c r="N777" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O777" s="3" t="s">
+      <c r="O777" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P777" s="1" t="n">
@@ -46215,7 +46206,7 @@
       <c r="N778" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O778" s="3" t="s">
+      <c r="O778" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P778" s="1" t="n">
@@ -46271,7 +46262,7 @@
       <c r="N779" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O779" s="3" t="s">
+      <c r="O779" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P779" s="1" t="n">
@@ -46327,7 +46318,7 @@
       <c r="N780" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O780" s="3" t="s">
+      <c r="O780" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P780" s="1" t="n">
@@ -46383,7 +46374,7 @@
       <c r="N781" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O781" s="3" t="s">
+      <c r="O781" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P781" s="1" t="n">
@@ -46439,7 +46430,7 @@
       <c r="N782" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O782" s="3" t="s">
+      <c r="O782" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P782" s="1" t="n">
@@ -46495,7 +46486,7 @@
       <c r="N783" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O783" s="3" t="s">
+      <c r="O783" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P783" s="1" t="n">
@@ -46551,7 +46542,7 @@
       <c r="N784" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O784" s="3" t="s">
+      <c r="O784" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P784" s="1" t="n">
@@ -46607,7 +46598,7 @@
       <c r="N785" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O785" s="3" t="s">
+      <c r="O785" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P785" s="1" t="n">
@@ -46663,7 +46654,7 @@
       <c r="N786" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O786" s="3" t="s">
+      <c r="O786" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P786" s="1" t="n">
@@ -46719,7 +46710,7 @@
       <c r="N787" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O787" s="3" t="s">
+      <c r="O787" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P787" s="1" t="n">
@@ -46775,7 +46766,7 @@
       <c r="N788" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O788" s="3" t="s">
+      <c r="O788" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P788" s="1" t="n">
@@ -46831,7 +46822,7 @@
       <c r="N789" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O789" s="3" t="s">
+      <c r="O789" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P789" s="1" t="n">
@@ -46887,7 +46878,7 @@
       <c r="N790" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O790" s="3" t="s">
+      <c r="O790" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P790" s="1" t="n">
@@ -46943,7 +46934,7 @@
       <c r="N791" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O791" s="3" t="s">
+      <c r="O791" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P791" s="1" t="n">
@@ -46999,7 +46990,7 @@
       <c r="N792" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O792" s="3" t="s">
+      <c r="O792" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P792" s="1" t="n">
@@ -47055,7 +47046,7 @@
       <c r="N793" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O793" s="3" t="s">
+      <c r="O793" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P793" s="1" t="n">
@@ -47111,7 +47102,7 @@
       <c r="N794" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O794" s="3" t="s">
+      <c r="O794" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P794" s="1" t="n">
@@ -47167,7 +47158,7 @@
       <c r="N795" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O795" s="3" t="s">
+      <c r="O795" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P795" s="1" t="n">
@@ -47223,7 +47214,7 @@
       <c r="N796" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="O796" s="3" t="s">
+      <c r="O796" s="1" t="s">
         <v>618</v>
       </c>
       <c r="P796" s="1" t="n">
